--- a/biology/Médecine/Armand_André/Armand_André.xlsx
+++ b/biology/Médecine/Armand_André/Armand_André.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armand_Andr%C3%A9</t>
+          <t>Armand_André</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand, Constant, Auguste, Hector, chevalier André, né le 12 juin 1924 à Visé et mort le 16 mai 2014 à Julémont était un professeur belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armand_Andr%C3%A9</t>
+          <t>Armand_André</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur en médecine, chirurgie et accouchement; licencié en criminologie.
 Il fut professeur de l'ULG.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Armand_Andr%C3%A9</t>
+          <t>Armand_André</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mandats passés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>président de l'École Liègeoise de Criminologie Jean Constant
 médecin-directeur des Centres de Transfusion de la Communauté francophone de la Croix-Rouge de Belgique
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Armand_Andr%C3%A9</t>
+          <t>Armand_André</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand officier de l'ordre de Léopold
 Grand officier de l'ordre de Léopold II
 Grand officier de l'ordre de la Couronne
 Croix d'honneur de l'ordre de Saint-Raymond de Peñafort
 Chevalier de la Légion d'Honneur
-Il fut élevé au rang de chevalier par SM le roi Albert II de Belgique en 1993[1].
+Il fut élevé au rang de chevalier par SM le roi Albert II de Belgique en 1993.
 </t>
         </is>
       </c>
